--- a/src/main/java/Data/mapping.xlsx
+++ b/src/main/java/Data/mapping.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9BC15A41-9205-490E-A609-6F12A8910FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nezam\source\repos\JsonCanonical\src\main\java\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391789DF-2FA0-453A-B805-31AB755BBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3525" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25200" yWindow="8505" windowWidth="22065" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -27,31 +31,31 @@
     <t>searchResult/searchOutput/memberNo</t>
   </si>
   <si>
-    <t>data/patient/memberId</t>
-  </si>
-  <si>
     <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/claimNumber</t>
   </si>
   <si>
-    <t>data/claimIdentifiers/payerClaimControlNumber</t>
-  </si>
-  <si>
     <t>searchResult/searchOutput/businessType</t>
   </si>
   <si>
-    <t>data/claimType</t>
-  </si>
-  <si>
     <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/reasonCode</t>
   </si>
   <si>
-    <t>data/reasonCodes[*]/claimDenialReasonCode</t>
-  </si>
-  <si>
     <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/claimPaymentTotal</t>
   </si>
   <si>
-    <t>data/totals/totalClaimPaidAmount</t>
+    <t>data[*]/patient/memberId</t>
+  </si>
+  <si>
+    <t>data[*]/claimIdentifiers/payerClaimControlNumber</t>
+  </si>
+  <si>
+    <t>data[*]/claimType</t>
+  </si>
+  <si>
+    <t>data[*]/reasonCodes[*]/claimDenialReasonCode</t>
+  </si>
+  <si>
+    <t>data[*]/totals/totalClaimPaidAmount</t>
   </si>
 </sst>
 </file>
@@ -415,7 +419,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -432,41 +436,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" customFormat="1">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" customFormat="1">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" customFormat="1">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" customFormat="1">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
